--- a/experiments/finished exp/adults-all-exp/all-adults-dissection.xlsx
+++ b/experiments/finished exp/adults-all-exp/all-adults-dissection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Chercheurs\Santos_Manuela\Thibault M\gut-microbiota-iron\experiments\finished exp\adults-all-exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thibault\Documents\CHUM_git\gut-microbiota-iron\experiments\finished exp\adults-all-exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC3653C-239C-4E4F-ACF2-596A6868A047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79595B3-5246-49A6-828D-7F88C7A9661E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{60C5D3A9-AAF7-411F-AF65-4E6D18AE5E2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{60C5D3A9-AAF7-411F-AF65-4E6D18AE5E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="101">
   <si>
     <t>Cage</t>
   </si>
@@ -277,6 +277,57 @@
   </si>
   <si>
     <t>spleen weight</t>
+  </si>
+  <si>
+    <t>54778A</t>
+  </si>
+  <si>
+    <t>54779B</t>
+  </si>
+  <si>
+    <t>54780-</t>
+  </si>
+  <si>
+    <t>54781A</t>
+  </si>
+  <si>
+    <t>54783A</t>
+  </si>
+  <si>
+    <t>54782-</t>
+  </si>
+  <si>
+    <t>54785A</t>
+  </si>
+  <si>
+    <t>54784-</t>
+  </si>
+  <si>
+    <t>54787A</t>
+  </si>
+  <si>
+    <t>54786-</t>
+  </si>
+  <si>
+    <t>54789A</t>
+  </si>
+  <si>
+    <t>54788-</t>
+  </si>
+  <si>
+    <t>54791A</t>
+  </si>
+  <si>
+    <t>54790-</t>
+  </si>
+  <si>
+    <t>54793A</t>
+  </si>
+  <si>
+    <t>54792-</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -310,7 +361,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -359,16 +410,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -386,6 +446,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,9 +474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -445,7 +514,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -551,7 +620,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,7 +762,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -701,15 +770,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90ADBDC-5CF5-4E97-A89A-7A13ADACDB13}">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K78" sqref="K78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,20 +807,20 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2">
-        <v>50</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="1">
@@ -767,20 +836,20 @@
         <v>8.5599999999999996E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>50</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="1">
@@ -796,20 +865,20 @@
         <v>0.1011</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="1">
@@ -825,20 +894,20 @@
         <v>9.7299999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F5" s="1">
@@ -854,20 +923,20 @@
         <v>9.2399999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2">
-        <v>50</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="1">
@@ -883,20 +952,20 @@
         <v>8.2299999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2">
-        <v>50</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F7" s="1">
@@ -912,20 +981,20 @@
         <v>0.12709999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="1">
@@ -941,20 +1010,20 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2">
-        <v>50</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F9" s="1">
@@ -970,20 +1039,20 @@
         <v>8.4599999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2">
-        <v>50</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F10" s="1">
@@ -999,20 +1068,20 @@
         <v>0.1065</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
         <v>5</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F11" s="1">
@@ -1028,20 +1097,20 @@
         <v>8.1199999999999994E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
-        <v>50</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F12" s="1">
@@ -1057,20 +1126,20 @@
         <v>9.6600000000000005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2">
-        <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F13" s="1">
@@ -1086,20 +1155,20 @@
         <v>0.16600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
-        <v>500</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1">
@@ -1115,20 +1184,20 @@
         <v>9.9400000000000002E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
         <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2">
-        <v>500</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15">
+        <v>500</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="1">
@@ -1144,20 +1213,20 @@
         <v>9.1700000000000004E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2">
-        <v>500</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="1">
@@ -1173,20 +1242,20 @@
         <v>7.6499999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2">
-        <v>500</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17">
+        <v>500</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F17" s="1">
@@ -1202,20 +1271,20 @@
         <v>0.1067</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
         <v>9</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="2">
-        <v>500</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F18" s="1">
@@ -1231,40 +1300,40 @@
         <v>0.11990000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
         <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2">
-        <v>500</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19">
+        <v>500</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="2">
-        <v>500</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20">
+        <v>500</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F20" s="1">
@@ -1280,20 +1349,20 @@
         <v>0.1134</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>10</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="2">
-        <v>500</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21">
+        <v>500</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F21" s="1">
@@ -1309,20 +1378,20 @@
         <v>0.17730000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
         <v>11</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
-        <v>500</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F22" s="1">
@@ -1338,20 +1407,20 @@
         <v>8.3099999999999993E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="8">
         <v>11</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="2">
-        <v>500</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23">
+        <v>500</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F23" s="1">
@@ -1367,20 +1436,20 @@
         <v>8.7900000000000006E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
         <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2">
-        <v>500</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24">
+        <v>500</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F24" s="1">
@@ -1396,20 +1465,20 @@
         <v>0.1153</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="8">
         <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="2">
-        <v>500</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25">
+        <v>500</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F25" s="1">
@@ -1425,716 +1494,716 @@
         <v>0.1062</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="9">
         <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="2">
-        <v>50</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="4">
         <v>23.8</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="4">
         <v>5.3</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="4">
         <v>1.1229</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
         <v>0.114</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="2">
-        <v>50</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <v>21.6</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="5">
         <v>5.8</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="5">
         <v>0.58530000000000004</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="5">
         <v>9.3700000000000006E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="9">
         <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="2">
-        <v>50</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
         <v>20.8</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="4">
         <v>5.3</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="4">
         <v>1.1012</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
         <v>6.9599999999999995E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
         <v>14</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="2">
-        <v>50</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="C29">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="5">
         <v>25.6</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="5">
         <v>5.3</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="5">
         <v>1.2788999999999999</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="5">
         <v>8.9899999999999994E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="9">
         <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="2">
-        <v>50</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="C30">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="4">
         <v>26.5</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="4">
         <v>1.42</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
         <v>7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
         <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="2">
-        <v>50</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="5">
         <v>25.7</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="5">
         <v>5.8</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="5">
         <v>1.3462000000000001</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="5">
         <v>9.9599999999999994E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9">
         <v>16</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="2">
-        <v>50</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="C32">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>24.6</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="4">
         <v>5.6</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="4">
         <v>1.1964999999999999</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="4">
         <v>0.1108</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
         <v>16</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="2">
-        <v>50</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="5">
         <v>24.5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="5">
         <v>4.5</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="5">
         <v>1.2259</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="5">
         <v>0.13239999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="9">
         <v>17</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="2">
-        <v>50</v>
-      </c>
-      <c r="D34" s="4" t="s">
+      <c r="C34">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="4">
         <v>28.7</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="4">
         <v>6</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="4">
         <v>1.2507999999999999</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
         <v>0.1003</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+    <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
         <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="2">
-        <v>50</v>
-      </c>
-      <c r="D35" s="4" t="s">
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="5">
         <v>25.8</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="5">
         <v>5.9</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="5">
         <v>1.2301</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="5">
         <v>9.1399999999999995E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="9">
         <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="2">
-        <v>50</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="C36">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
         <v>24</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="4">
         <v>5.3</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="4">
         <v>0.68149999999999999</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
         <v>0.15279999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
         <v>18</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="2">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4" t="s">
+      <c r="C37">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="5">
         <v>29</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="5">
         <v>5.9</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="5">
         <v>1.3462000000000001</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="5">
         <v>0.1198</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="9">
         <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="2">
-        <v>500</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="4">
         <v>27.8</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="4">
         <v>5.4</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="4">
         <v>1.4923</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4">
         <v>0.11070000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
         <v>19</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="2">
-        <v>500</v>
-      </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39">
+        <v>500</v>
+      </c>
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>25.6</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="5">
         <v>5.6</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="5">
         <v>1.4044000000000001</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="5">
         <v>9.11E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9">
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="2">
-        <v>500</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40">
+        <v>500</v>
+      </c>
+      <c r="D40" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="4">
         <v>28.3</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="4">
         <v>1.3628</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="4">
         <v>0.1043</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12">
+    <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="2">
-        <v>500</v>
-      </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41">
+        <v>500</v>
+      </c>
+      <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="5">
         <v>21.6</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="5">
         <v>4.2</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="5">
         <v>1.2216</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="5">
         <v>0.111</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="9">
         <v>21</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="2">
-        <v>500</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="C42">
+        <v>500</v>
+      </c>
+      <c r="D42" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="4">
         <v>28.9</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="4">
         <v>5.3</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="4">
         <v>1.5327</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="4">
         <v>9.8500000000000004E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10">
         <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="2">
-        <v>500</v>
-      </c>
-      <c r="D43" s="4" t="s">
+      <c r="C43">
+        <v>500</v>
+      </c>
+      <c r="D43" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="5">
         <v>22.7</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="5">
         <v>6.5</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="5">
         <v>1.2741</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="5">
         <v>0.1147</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="9">
         <v>22</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="2">
-        <v>500</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="C44">
+        <v>500</v>
+      </c>
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="4">
         <v>23.1</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="4">
         <v>5.3</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="4">
         <v>1.1834</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="4">
         <v>7.8700000000000006E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12">
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10">
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C45" s="2">
-        <v>500</v>
-      </c>
-      <c r="D45" s="4" t="s">
+      <c r="C45">
+        <v>500</v>
+      </c>
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="5">
         <v>24.7</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="5">
         <v>5.8</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="5">
         <v>1.502</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="5">
         <v>9.4899999999999998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="9">
         <v>23</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2">
-        <v>500</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
         <v>23.2</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="4">
         <v>5.4</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="4">
         <v>1.2718</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="4">
         <v>0.1149</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12">
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10">
         <v>23</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="2">
-        <v>500</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="C47">
+        <v>500</v>
+      </c>
+      <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="5">
         <v>23.9</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>5.4</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>1.1483000000000001</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>8.3299999999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="9">
         <v>24</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="2">
-        <v>500</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="4">
         <v>24.2</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="4">
         <v>5.5</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="4">
         <v>1.3513999999999999</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="4">
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12">
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10">
         <v>24</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2">
-        <v>500</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="C49">
+        <v>500</v>
+      </c>
+      <c r="D49" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="5">
         <v>24.4</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="5">
         <v>5.6</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>1.2206999999999999</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>8.1699999999999995E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
         <v>1</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" t="s">
         <v>52</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F50" s="1">
@@ -2150,20 +2219,20 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="10">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
         <v>1</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F51" s="1">
@@ -2179,11 +2248,11 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
         <v>2</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C52">
@@ -2192,15 +2261,15 @@
       <c r="D52" t="s">
         <v>53</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10">
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
         <v>2</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>36695</v>
       </c>
       <c r="C53">
@@ -2209,15 +2278,15 @@
       <c r="D53" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
         <v>3</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C54">
@@ -2226,7 +2295,7 @@
       <c r="D54" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F54" s="1">
@@ -2242,11 +2311,11 @@
         <v>0.22020000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
         <v>3</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C55">
@@ -2255,7 +2324,7 @@
       <c r="D55" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F55" s="1">
@@ -2271,11 +2340,11 @@
         <v>8.0699999999999994E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
         <v>4</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C56">
@@ -2284,7 +2353,7 @@
       <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F56" s="1">
@@ -2300,11 +2369,11 @@
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10">
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
         <v>4</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C57">
@@ -2313,7 +2382,7 @@
       <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F57" s="1">
@@ -2329,11 +2398,11 @@
         <v>0.1157</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
         <v>5</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C58">
@@ -2342,15 +2411,15 @@
       <c r="D58" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="10">
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
         <v>5</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>36801</v>
       </c>
       <c r="C59">
@@ -2359,15 +2428,15 @@
       <c r="D59" t="s">
         <v>53</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="9">
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="7">
         <v>6</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C60">
@@ -2376,7 +2445,7 @@
       <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F60" s="1">
@@ -2392,11 +2461,11 @@
         <v>8.9399999999999993E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="10">
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
         <v>6</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C61">
@@ -2405,7 +2474,7 @@
       <c r="D61" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F61" s="1">
@@ -2421,11 +2490,11 @@
         <v>8.2699999999999996E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
         <v>7</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C62">
@@ -2434,7 +2503,7 @@
       <c r="D62" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F62" s="1">
@@ -2450,11 +2519,11 @@
         <v>0.14599999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
         <v>7</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>69</v>
       </c>
       <c r="C63">
@@ -2463,7 +2532,7 @@
       <c r="D63" t="s">
         <v>54</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F63" s="1">
@@ -2479,11 +2548,11 @@
         <v>9.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="9">
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
         <v>8</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64" s="3">
         <v>36670</v>
       </c>
       <c r="C64">
@@ -2492,15 +2561,15 @@
       <c r="D64" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="10">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="8">
         <v>8</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C65">
@@ -2509,15 +2578,15 @@
       <c r="D65" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="9">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
         <v>9</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C66">
@@ -2526,7 +2595,7 @@
       <c r="D66" t="s">
         <v>52</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F66" s="1">
@@ -2542,11 +2611,11 @@
         <v>9.5500000000000002E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="8">
         <v>9</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C67">
@@ -2555,7 +2624,7 @@
       <c r="D67" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F67" s="1">
@@ -2571,11 +2640,11 @@
         <v>0.1487</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9">
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
         <v>10</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C68">
@@ -2584,7 +2653,7 @@
       <c r="D68" t="s">
         <v>52</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F68" s="1">
@@ -2600,11 +2669,11 @@
         <v>0.224</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="8">
         <v>10</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C69">
@@ -2613,7 +2682,7 @@
       <c r="D69" t="s">
         <v>52</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F69" s="1">
@@ -2629,11 +2698,11 @@
         <v>9.1300000000000006E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9">
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
         <v>11</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C70">
@@ -2642,15 +2711,15 @@
       <c r="D70" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="8">
         <v>11</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C71">
@@ -2659,15 +2728,15 @@
       <c r="D71" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
         <v>12</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C72">
@@ -2676,7 +2745,7 @@
       <c r="D72" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F72" s="1">
@@ -2692,11 +2761,11 @@
         <v>0.1009</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="10">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="8">
         <v>12</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C73">
@@ -2705,7 +2774,7 @@
       <c r="D73" t="s">
         <v>54</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F73" s="1">
@@ -2717,7 +2786,465 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="12">
+        <v>291360</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74">
+        <v>50</v>
+      </c>
+      <c r="D74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74">
+        <v>25</v>
+      </c>
+      <c r="G74">
+        <v>6.6</v>
+      </c>
+      <c r="H74">
+        <v>1.4214</v>
+      </c>
+      <c r="I74">
+        <v>7.8100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="13"/>
+      <c r="B75" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75">
+        <v>50</v>
+      </c>
+      <c r="D75" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75">
+        <v>25.9</v>
+      </c>
+      <c r="G75">
+        <v>6.9</v>
+      </c>
+      <c r="H75">
+        <v>1.3424</v>
+      </c>
+      <c r="I75">
+        <v>0.1011</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="12">
+        <v>291361</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>52</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76">
+        <v>26.4</v>
+      </c>
+      <c r="G76">
+        <v>6.1</v>
+      </c>
+      <c r="H76">
+        <v>1.2755000000000001</v>
+      </c>
+      <c r="I76">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="13"/>
+      <c r="B77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>29.6</v>
+      </c>
+      <c r="G77">
+        <v>6.4</v>
+      </c>
+      <c r="H77">
+        <v>1.5038</v>
+      </c>
+      <c r="I77">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="12">
+        <v>291362</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>50</v>
+      </c>
+      <c r="D78" t="s">
+        <v>53</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F78">
+        <v>27.6</v>
+      </c>
+      <c r="G78">
+        <v>6.2</v>
+      </c>
+      <c r="H78">
+        <v>1.5245</v>
+      </c>
+      <c r="I78">
+        <v>0.1217</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="13"/>
+      <c r="B79" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>50</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79">
+        <v>30</v>
+      </c>
+      <c r="G79">
+        <v>8</v>
+      </c>
+      <c r="H79">
+        <v>1.2532000000000001</v>
+      </c>
+      <c r="I79">
+        <v>0.1055</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="12">
+        <v>291363</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>50</v>
+      </c>
+      <c r="D80" t="s">
+        <v>52</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F80">
+        <v>26.9</v>
+      </c>
+      <c r="G80">
+        <v>5.9</v>
+      </c>
+      <c r="H80">
+        <v>1.2601</v>
+      </c>
+      <c r="I80">
+        <v>0.1103</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="13"/>
+      <c r="B81" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s">
+        <v>52</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81">
+        <v>23.2</v>
+      </c>
+      <c r="G81">
+        <v>6.3</v>
+      </c>
+      <c r="H81">
+        <v>1.3462000000000001</v>
+      </c>
+      <c r="I81">
+        <v>8.77E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="12">
+        <v>291364</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <v>500</v>
+      </c>
+      <c r="D82" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82">
+        <v>21.8</v>
+      </c>
+      <c r="G82">
+        <v>6.5</v>
+      </c>
+      <c r="H82">
+        <v>1.2256</v>
+      </c>
+      <c r="I82">
+        <v>8.2199999999999995E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="13"/>
+      <c r="B83" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83">
+        <v>500</v>
+      </c>
+      <c r="D83" t="s">
+        <v>53</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G83">
+        <v>6.5</v>
+      </c>
+      <c r="H83">
+        <v>1.6479999999999999</v>
+      </c>
+      <c r="I83">
+        <v>0.1089</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="12">
+        <v>291365</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>500</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F84">
+        <v>27.3</v>
+      </c>
+      <c r="G84">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>1.4966999999999999</v>
+      </c>
+      <c r="I84">
+        <v>0.1022</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="13"/>
+      <c r="B85" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>500</v>
+      </c>
+      <c r="D85" t="s">
+        <v>52</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F85">
+        <v>33</v>
+      </c>
+      <c r="G85">
+        <v>6.8</v>
+      </c>
+      <c r="H85">
+        <v>2.0608</v>
+      </c>
+      <c r="I85">
+        <v>0.1326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="12">
+        <v>291366</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86">
+        <v>500</v>
+      </c>
+      <c r="D86" t="s">
+        <v>53</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F86">
+        <v>23.7</v>
+      </c>
+      <c r="G86">
+        <v>5.5</v>
+      </c>
+      <c r="H86">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="I86">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="13"/>
+      <c r="B87" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <v>500</v>
+      </c>
+      <c r="D87" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F87">
+        <v>27.9</v>
+      </c>
+      <c r="G87">
+        <v>6.4</v>
+      </c>
+      <c r="H87">
+        <v>1.3250999999999999</v>
+      </c>
+      <c r="I87">
+        <v>9.3899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="12">
+        <v>291367</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88">
+        <v>500</v>
+      </c>
+      <c r="D88" t="s">
+        <v>52</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F88">
+        <v>25.1</v>
+      </c>
+      <c r="G88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>1.3556999999999999</v>
+      </c>
+      <c r="I88">
+        <v>9.5399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="13"/>
+      <c r="B89" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89">
+        <v>500</v>
+      </c>
+      <c r="D89" t="s">
+        <v>52</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F89">
+        <v>24.8</v>
+      </c>
+      <c r="G89">
+        <v>5.5</v>
+      </c>
+      <c r="H89">
+        <v>1.355</v>
+      </c>
+      <c r="I89">
+        <v>9.9900000000000003E-2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
